--- a/Team_bck/pythonProject/controller/animeinfo.xlsx
+++ b/Team_bck/pythonProject/controller/animeinfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\kcs-main\kcs-main\pythonProject\controller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\TeamPrjSample-main\TeamPrjSample-main\Team_bck\pythonProject\controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="622">
   <si>
     <t>순번</t>
   </si>
@@ -1571,9 +1571,6 @@
     <t>우정 발랄가볍 감동 지식전달 귀여움 아동 일상 마을 집 섬 자연 판권 부활 성장 배틀 판타지 액션 모험 상상의 장소 이세계</t>
   </si>
   <si>
-    <t>개구쟁이 스머프</t>
-  </si>
-  <si>
     <t>파란색 피부에 하얀색 모자와 바지. 사과3개만큼의 작은 키. 버섯모양의 예쁜 집.누군지 아시겠어요?  인간들은 찾을 수 없는 깊은 숲 속 작은 버섯 마을에 매력적인 주인공, 스머프라 불리는 꼬마요정들이랍니다. 깜찍한 스머페트, 잘난체하기 좋아하는 똘똘이, 맨날 거울만 보는 허영이, 언제나 불만 가득한 투덜이, 힘 자랑하기 좋아하는 덩치, 폭탄선물로 유명한 익살이등 모두모두 남다른 개성을 지닌 멋진 친구들이에요. 스머프 마을은 평화로운 곳이지만 이들에게는 스머프를 황금으로 바꾸어 부자가 되겠다는 삼류 마법사 가가멜이 있어 언제나 긴장을 늦춰선 안돼요. 하지만 그렇다고 스머프들이 도망만 다니는 것은 아니랍니다. 가가멜을 놀려 주는 것도 이들의 일상 중 하나인걸요.자 이제 활력이 넘치는 이곳, 숲 속 스머프 마을로 모두 함께 떠나볼까요?인간들은 찾을 수 없는 깊은 숲 속 작은 버섯 마을에 살고 있는 꼬마 요정 스머프들의 이야기</t>
   </si>
   <si>
@@ -1598,9 +1595,6 @@
     <t>동물 발랄가볍 아동 개그 음악 오리지널 애니메이션 작품</t>
   </si>
   <si>
-    <t>안녕 자두야</t>
-  </si>
-  <si>
     <t>안녕 자두야는 엄마 어렸을 적 이야기로, 온가족이 볼 수 있는 명랑코믹 애니메이션입니다.   말괄량이 초등학생 자두를 주인공으로 한 다섯 가족의 유쾌하고 가슴 따뜻한 이야기입니다.안녕 자두야 명작동화! 효녀자두와 엄지공주. 효녀 심청이 아닌 효녀 자두가 왔다! 눈이 불편한 아빠와 단둘이 살아가는 자두. 특효약인 인당수 연꽃을 구하러 배를 타는데… 엄지공주로 꽃에서 태어난 작은 자두! 독수리에 구렁이에 온갖 동물들이 잡아먹으려 하고 개미왕국의 윤석왕자의 노골적인 애정공세까지! 고달픈 인생이여~‘자두’는 제주도 가족여행에서 만난 엄친딸 제주 소녀 ‘전복’이가 못마땅하다. 게다가 ‘윤석’이를 바라보는 저 하트 눈빛은 뭐람!  베프 윤석이를 전복이가 독차지하자 화가 난 자두는 실수로 돌하르방을 넘어뜨리고, 먼 옛날 저주를 품고 봉인된 ‘보리’가 깨어난다.  보리가 쏜 돌하르방 빔에 맞은 사람들은 돌이 되어 굳어 버리고, 자두와 친구들은 모두를 원상태로 되돌릴 방법을 찾아 나서는데…  제주도로 자! 떠나보자 두! 명랑히어로 자두의 판타스틱 어드벤처! 제주도의 운명이 걸린 초특급 비밀은 과연 무엇일까?</t>
   </si>
   <si>
@@ -1616,16 +1610,10 @@
     <t>가족 발랄가볍 감동 귀여움 일상 개그 시대물 학교 집</t>
   </si>
   <si>
-    <t>이상한 과자가게 전천당</t>
-  </si>
-  <si>
     <t>과자를 산 사람의 운명을 바꿀 수 있는 이상한 과자 가게, 전천당에서 펼쳐지는 신기한 이야기</t>
   </si>
   <si>
     <t>귀여움 판타지 아동 소설 원작</t>
-  </si>
-  <si>
-    <t>세일러 문</t>
   </si>
   <si>
     <t>세일러 전사들에 의해 악당들이 사라지고 세계가 평화를 되찾았다고 생각했지만 또 다른 그림자가 세계에 드리우고 있었다. 어느날 도시에 데드문 서커스라는 서커스단의 텐트가 들어온다. 사실 그들은 서커스단이 아니라 검은 달의 여왕인 네헤레니아의 수하들! 그들의 목적은 페가수스를 잡는 것인데... 페가수스는 꿈의 거울을 가지고 있기 때문에 그들은 아름다운 꿈을 꾸는 사람들을 잡으려 한다. 세일러 전사들은 이들과 싸워 지구를 지키려고 하지만 이들의 힘이 너무 강해 고전을 면치 못하는데...어둠의 왕국과의 싸움이 끝나고 세일러 요정들은 자신이 세일러 요정이라는 사실을 잊고 평범한 중학생으로 돌아간다. 세일러 문으로 활약한 세라도 한나, 대니와 평화로운 하루를 보낸다. 그러나 우주에서 거대한 운석이 날아오고 세일러 요정들 앞에 새로운 적이 나타난다. 외계에서 온 에일과 안은 생명나무의 에너지를 찾기 위해 지구에 왔다. 루나는 세일러 요정들의 기억을 되살리고 각성한 세일러 요정들은 안과 에일에 맞서 전투를 벌인다!세상에 새로운 적들이 나타났다. 그들은 바로 세일러 전사들. 그리고 그들의 두목은 바로 세일러 갤럭시아! 부하들은 갤럭시아가 준 팔찌를 끼고 있고 팔지가 있는 이상 그 힘에 때문에 갤럭시아에게 복종할 수 밖에 없다.   갤럭시아는 카오스를 몸 안에 봉인해버렸지만 카오스가 몸을 집어삼켜버리고... 그녀의 목적은 각 별의 스타시드를 찾아 은하를 파괴시키고 다시 새롭게 만들고자 하는 것!    갤럭시아에게 이러한 이유로 당했던 자들이 있었다. 그들은 바로 태양계 외부의 세일러 전사들인 세일러 스타라이츠! 이들은 갤럭시아에게 빼앗긴 별의 공주를 찾기 위해 갤럭시아를 찾는데...안녕하세요, 세라예요. 이래뵈도 정의의 용사랍니다. 요술처럼 변신해서 나쁜녀석들을 얍얍 물리쳐요! 저는 사랑과 정의를 지키는 귀여운 달의 요정 세일러 문이랍니다. 그런데 이게 보기보다 쉽지 않더라구요.못된 악당들보다 먼저 환상의 크리스탈을 찾아야 한다나 뭐라나. 하지만 여러분들이 열심히 응원해주시니까 문제 없을거에요!세일러 요정들의 노력으로 평화를 되찾은 세계. 평범한 나날을 보내던 그들 앞에 또 다른 적들이 나타난다! 데스버스터즈라는 적들은 영혼의 별 3개를 모아 성배를 만들고 세계를 멸망으로 몰아넣을 계획이었는데! 이를 막기 위해 새로운 세일러 요정인 세일러 우라누스와 넵튠이 등장한다. 데스버스터즈로부터 지구를 구하기 위해 고전하는 세일러 요정들!</t>
@@ -1692,9 +1680,6 @@
     <t>많은</t>
   </si>
   <si>
-    <t>무사히</t>
-  </si>
-  <si>
     <t>새로운</t>
   </si>
   <si>
@@ -1719,117 +1704,48 @@
     <t>평화로운</t>
   </si>
   <si>
-    <t>돌파</t>
-  </si>
-  <si>
-    <t>가게</t>
-  </si>
-  <si>
-    <t>가족</t>
-  </si>
-  <si>
     <t>감동</t>
   </si>
   <si>
-    <t>지식</t>
-  </si>
-  <si>
-    <t>전달</t>
-  </si>
-  <si>
-    <t>갑자기</t>
-  </si>
-  <si>
     <t>개그</t>
   </si>
   <si>
     <t>공룡</t>
   </si>
   <si>
-    <t>아동</t>
-  </si>
-  <si>
-    <t>판타지</t>
-  </si>
-  <si>
-    <t>곳</t>
-  </si>
-  <si>
-    <t>꼬마</t>
-  </si>
-  <si>
     <t>꿈</t>
   </si>
   <si>
-    <t>나날</t>
-  </si>
-  <si>
-    <t>다른</t>
-  </si>
-  <si>
-    <t>다섯</t>
-  </si>
-  <si>
-    <t>다시</t>
-  </si>
-  <si>
-    <t>데리</t>
-  </si>
-  <si>
     <t>동물</t>
   </si>
   <si>
-    <t>발랄</t>
-  </si>
-  <si>
     <t>로봇</t>
   </si>
   <si>
     <t>마을</t>
   </si>
   <si>
-    <t>만난</t>
-  </si>
-  <si>
     <t>만화</t>
   </si>
   <si>
     <t>모두</t>
   </si>
   <si>
-    <t>모든</t>
-  </si>
-  <si>
-    <t>모습</t>
-  </si>
-  <si>
     <t>모험</t>
   </si>
   <si>
-    <t>무슨</t>
-  </si>
-  <si>
     <t>발견</t>
   </si>
   <si>
-    <t>배경</t>
-  </si>
-  <si>
     <t>배틀</t>
   </si>
   <si>
     <t>사람</t>
   </si>
   <si>
-    <t>사실</t>
-  </si>
-  <si>
     <t>성장</t>
   </si>
   <si>
-    <t>세계</t>
-  </si>
-  <si>
     <t>세상</t>
   </si>
   <si>
@@ -1839,48 +1755,21 @@
     <t>소원</t>
   </si>
   <si>
-    <t>손</t>
-  </si>
-  <si>
-    <t>시작</t>
-  </si>
-  <si>
     <t>일상</t>
   </si>
   <si>
-    <t>아이</t>
-  </si>
-  <si>
-    <t>알</t>
-  </si>
-  <si>
     <t>액션</t>
   </si>
   <si>
-    <t>엄마</t>
-  </si>
-  <si>
     <t>우정</t>
   </si>
   <si>
     <t>우주</t>
   </si>
   <si>
-    <t>판매량</t>
-  </si>
-  <si>
     <t>위기</t>
   </si>
   <si>
-    <t>위험</t>
-  </si>
-  <si>
-    <t>이야기</t>
-  </si>
-  <si>
-    <t>자신</t>
-  </si>
-  <si>
     <t>전설</t>
   </si>
   <si>
@@ -1890,262 +1779,13 @@
     <t>지구</t>
   </si>
   <si>
-    <t>찾기</t>
-  </si>
-  <si>
-    <t>초등학생</t>
-  </si>
-  <si>
     <t>친구</t>
   </si>
   <si>
     <t>평화</t>
   </si>
   <si>
-    <t>학교</t>
-  </si>
-  <si>
     <t>힘</t>
-  </si>
-  <si>
-    <t>나쁜</t>
-  </si>
-  <si>
-    <t>예쁜</t>
-  </si>
-  <si>
-    <t>발생</t>
-  </si>
-  <si>
-    <t>귀</t>
-  </si>
-  <si>
-    <t>개</t>
-  </si>
-  <si>
-    <t>거리</t>
-  </si>
-  <si>
-    <t>겁</t>
-  </si>
-  <si>
-    <t>공격</t>
-  </si>
-  <si>
-    <t>공주</t>
-  </si>
-  <si>
-    <t>괴물</t>
-  </si>
-  <si>
-    <t>그림</t>
-  </si>
-  <si>
-    <t>꽃</t>
-  </si>
-  <si>
-    <t>나</t>
-  </si>
-  <si>
-    <t>놀이</t>
-  </si>
-  <si>
-    <t>눈</t>
-  </si>
-  <si>
-    <t>대회</t>
-  </si>
-  <si>
-    <t>도시</t>
-  </si>
-  <si>
-    <t>멸망</t>
-  </si>
-  <si>
-    <t>집</t>
-  </si>
-  <si>
-    <t>마지막</t>
-  </si>
-  <si>
-    <t>무대</t>
-  </si>
-  <si>
-    <t>무엇</t>
-  </si>
-  <si>
-    <t>문제</t>
-  </si>
-  <si>
-    <t>물리</t>
-  </si>
-  <si>
-    <t>별</t>
-  </si>
-  <si>
-    <t>볼</t>
-  </si>
-  <si>
-    <t>봉인</t>
-  </si>
-  <si>
-    <t>부터</t>
-  </si>
-  <si>
-    <t>부하</t>
-  </si>
-  <si>
-    <t>부활</t>
-  </si>
-  <si>
-    <t>비밀</t>
-  </si>
-  <si>
-    <t>사랑</t>
-  </si>
-  <si>
-    <t>산</t>
-  </si>
-  <si>
-    <t>상상</t>
-  </si>
-  <si>
-    <t>상황</t>
-  </si>
-  <si>
-    <t>생각</t>
-  </si>
-  <si>
-    <t>생활</t>
-  </si>
-  <si>
-    <t>섬</t>
-  </si>
-  <si>
-    <t>세기</t>
-  </si>
-  <si>
-    <t>수수께끼</t>
-  </si>
-  <si>
-    <t>숲</t>
-  </si>
-  <si>
-    <t>시간</t>
-  </si>
-  <si>
-    <t>시대</t>
-  </si>
-  <si>
-    <t>신비</t>
-  </si>
-  <si>
-    <t>싸움</t>
-  </si>
-  <si>
-    <t>아빠</t>
-  </si>
-  <si>
-    <t>악당</t>
-  </si>
-  <si>
-    <t>약속</t>
-  </si>
-  <si>
-    <t>적</t>
-  </si>
-  <si>
-    <t>에너지</t>
-  </si>
-  <si>
-    <t>여름방학</t>
-  </si>
-  <si>
-    <t>여왕</t>
-  </si>
-  <si>
-    <t>열</t>
-  </si>
-  <si>
-    <t>오늘</t>
-  </si>
-  <si>
-    <t>왕국</t>
-  </si>
-  <si>
-    <t>요정</t>
-  </si>
-  <si>
-    <t>용</t>
-  </si>
-  <si>
-    <t>우리</t>
-  </si>
-  <si>
-    <t>운명</t>
-  </si>
-  <si>
-    <t>웃음</t>
-  </si>
-  <si>
-    <t>의문</t>
-  </si>
-  <si>
-    <t>이용</t>
-  </si>
-  <si>
-    <t>인간</t>
-  </si>
-  <si>
-    <t>일행</t>
-  </si>
-  <si>
-    <t>작품</t>
-  </si>
-  <si>
-    <t>장소</t>
-  </si>
-  <si>
-    <t>저주</t>
-  </si>
-  <si>
-    <t>전투</t>
-  </si>
-  <si>
-    <t>지금</t>
-  </si>
-  <si>
-    <t>첫</t>
-  </si>
-  <si>
-    <t>최고</t>
-  </si>
-  <si>
-    <t>추억</t>
-  </si>
-  <si>
-    <t>캐릭터</t>
-  </si>
-  <si>
-    <t>폭탄</t>
-  </si>
-  <si>
-    <t>하나</t>
-  </si>
-  <si>
-    <t>하루</t>
-  </si>
-  <si>
-    <t>학년</t>
-  </si>
-  <si>
-    <t>할머니</t>
-  </si>
-  <si>
-    <t>할아버지</t>
-  </si>
-  <si>
-    <t>해결</t>
   </si>
   <si>
     <t>형용사</t>
@@ -2176,7 +1816,143 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50대</t>
+    <t>스머프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕자두야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세일러문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전천당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕자두야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세일러문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나쁜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예쁜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발랄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괴물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가족 집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가족 집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에너지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웃음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추억</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판타지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분위기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키워드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초등학생 아이 꼬마 아동 여름방학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 여름방학</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8223,7 +7999,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8441,13 +8217,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>509</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>510</v>
       </c>
       <c r="E11" s="8">
         <v>12</v>
@@ -8461,13 +8237,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>512</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>513</v>
       </c>
       <c r="E12" s="8">
         <v>146</v>
@@ -8481,13 +8257,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>515</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>516</v>
       </c>
       <c r="E13" s="8">
         <v>29</v>
@@ -8501,13 +8277,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>517</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>519</v>
       </c>
       <c r="E14" s="8">
         <v>14</v>
@@ -8521,13 +8297,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>520</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>522</v>
       </c>
       <c r="E15" s="8">
         <v>93</v>
@@ -8541,13 +8317,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>523</v>
+        <v>590</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E16" s="8">
         <v>20</v>
@@ -8561,13 +8337,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>526</v>
+        <v>589</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E17" s="8">
         <v>485</v>
@@ -8581,13 +8357,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E18" s="8">
         <v>232</v>
@@ -8601,13 +8377,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E19" s="8">
         <v>1050</v>
@@ -8621,13 +8397,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E20" s="8">
         <v>123</v>
@@ -8641,13 +8417,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E21" s="8">
         <v>179</v>
@@ -8668,12 +8444,15 @@
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="7" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="9.875" customWidth="1"/>
+    <col min="14" max="14" width="10.25" customWidth="1"/>
+    <col min="15" max="15" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -8708,37 +8487,37 @@
         <v>505</v>
       </c>
       <c r="K1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="L1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="N1" t="s">
-        <v>517</v>
+        <v>591</v>
       </c>
       <c r="O1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="Q1" t="s">
-        <v>526</v>
+        <v>592</v>
       </c>
       <c r="R1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="S1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="T1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="U1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -9133,7 +8912,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B8">
         <v>1601</v>
@@ -9400,1010 +9179,335 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="7" max="7" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>700</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>701</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E2" t="s">
+        <v>583</v>
+      </c>
+      <c r="F2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C3" t="s">
+        <v>553</v>
+      </c>
+      <c r="E3" t="s">
+        <v>584</v>
+      </c>
+      <c r="F3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>542</v>
+      </c>
+      <c r="C4" t="s">
+        <v>554</v>
+      </c>
+      <c r="E4" t="s">
+        <v>585</v>
+      </c>
+      <c r="F4" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>543</v>
+      </c>
+      <c r="C5" t="s">
+        <v>617</v>
+      </c>
+      <c r="E5" t="s">
+        <v>586</v>
+      </c>
+      <c r="F5" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>544</v>
       </c>
-      <c r="B2" t="s">
-        <v>544</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>545</v>
+      </c>
+      <c r="C7" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>546</v>
+      </c>
+      <c r="C8" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>547</v>
+      </c>
+      <c r="C9" t="s">
         <v>558</v>
       </c>
-      <c r="E2" t="s">
-        <v>622</v>
-      </c>
-      <c r="G2" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>545</v>
-      </c>
-      <c r="B3" t="s">
-        <v>545</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>548</v>
+      </c>
+      <c r="C10" t="s">
         <v>559</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>549</v>
+      </c>
+      <c r="C11" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>550</v>
+      </c>
+      <c r="C12" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>551</v>
+      </c>
+      <c r="C13" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>593</v>
+      </c>
+      <c r="C14" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>594</v>
+      </c>
+      <c r="C15" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>595</v>
+      </c>
+      <c r="C16" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>600</v>
+      </c>
+      <c r="C17" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>606</v>
+      </c>
+      <c r="C18" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>609</v>
+      </c>
+      <c r="C19" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
         <v>598</v>
       </c>
-      <c r="G3" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>546</v>
-      </c>
-      <c r="B4" t="s">
-        <v>620</v>
-      </c>
-      <c r="D4" t="s">
-        <v>560</v>
-      </c>
-      <c r="E4" t="s">
-        <v>558</v>
-      </c>
-      <c r="G4" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>547</v>
-      </c>
-      <c r="B5" t="s">
-        <v>546</v>
-      </c>
-      <c r="D5" t="s">
-        <v>561</v>
-      </c>
-      <c r="E5" t="s">
-        <v>560</v>
-      </c>
-      <c r="G5" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>548</v>
-      </c>
-      <c r="B6" t="s">
-        <v>547</v>
-      </c>
-      <c r="D6" t="s">
-        <v>562</v>
-      </c>
-      <c r="E6" t="s">
-        <v>559</v>
-      </c>
-      <c r="G6" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>549</v>
-      </c>
-      <c r="B7" t="s">
-        <v>548</v>
-      </c>
-      <c r="D7" t="s">
-        <v>563</v>
-      </c>
-      <c r="E7" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>550</v>
-      </c>
-      <c r="B8" t="s">
-        <v>549</v>
-      </c>
-      <c r="D8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E8" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>551</v>
-      </c>
-      <c r="B9" t="s">
-        <v>550</v>
-      </c>
-      <c r="D9" t="s">
-        <v>565</v>
-      </c>
-      <c r="E9" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>552</v>
-      </c>
-      <c r="B10" t="s">
-        <v>551</v>
-      </c>
-      <c r="D10" t="s">
-        <v>566</v>
-      </c>
-      <c r="E10" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>553</v>
-      </c>
-      <c r="B11" t="s">
-        <v>621</v>
-      </c>
-      <c r="D11" t="s">
-        <v>567</v>
-      </c>
-      <c r="E11" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>554</v>
-      </c>
-      <c r="B12" t="s">
-        <v>552</v>
-      </c>
-      <c r="D12" t="s">
-        <v>569</v>
-      </c>
-      <c r="E12" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>555</v>
-      </c>
-      <c r="B13" t="s">
-        <v>553</v>
-      </c>
-      <c r="D13" t="s">
-        <v>570</v>
-      </c>
-      <c r="E13" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>556</v>
-      </c>
-      <c r="B14" t="s">
-        <v>554</v>
-      </c>
-      <c r="D14" t="s">
-        <v>571</v>
-      </c>
-      <c r="E14" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>555</v>
-      </c>
-      <c r="D15" t="s">
-        <v>572</v>
-      </c>
-      <c r="E15" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>556</v>
-      </c>
-      <c r="D16" t="s">
-        <v>573</v>
-      </c>
-      <c r="E16" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D17" t="s">
-        <v>574</v>
-      </c>
-      <c r="E17" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D18" t="s">
-        <v>575</v>
-      </c>
-      <c r="E18" t="s">
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
         <v>616</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D19" t="s">
-        <v>576</v>
-      </c>
-      <c r="E19" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D20" t="s">
-        <v>577</v>
-      </c>
-      <c r="E20" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D21" t="s">
-        <v>578</v>
-      </c>
-      <c r="E21" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
-        <v>579</v>
-      </c>
-      <c r="E22" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D23" t="s">
-        <v>580</v>
-      </c>
-      <c r="E23" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D24" t="s">
-        <v>581</v>
-      </c>
-      <c r="E24" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D25" t="s">
-        <v>582</v>
-      </c>
-      <c r="E25" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D26" t="s">
-        <v>583</v>
-      </c>
-      <c r="E26" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D27" t="s">
-        <v>584</v>
-      </c>
-      <c r="E27" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D28" t="s">
-        <v>585</v>
-      </c>
-      <c r="E28" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D29" t="s">
-        <v>586</v>
-      </c>
-      <c r="E29" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D30" t="s">
-        <v>587</v>
-      </c>
-      <c r="E30" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D31" t="s">
-        <v>588</v>
-      </c>
-      <c r="E31" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D32" t="s">
-        <v>589</v>
-      </c>
-      <c r="E32" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D33" t="s">
-        <v>590</v>
-      </c>
-      <c r="E33" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D34" t="s">
-        <v>591</v>
-      </c>
-      <c r="E34" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D35" t="s">
-        <v>592</v>
-      </c>
-      <c r="E35" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D36" t="s">
-        <v>593</v>
-      </c>
-      <c r="E36" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D37" t="s">
-        <v>594</v>
-      </c>
-      <c r="E37" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D38" t="s">
-        <v>595</v>
-      </c>
-      <c r="E38" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D39" t="s">
-        <v>596</v>
-      </c>
-      <c r="E39" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D40" t="s">
-        <v>597</v>
-      </c>
-      <c r="E40" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D41" t="s">
-        <v>598</v>
-      </c>
-      <c r="E41" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D42" t="s">
-        <v>599</v>
-      </c>
-      <c r="E42" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D43" t="s">
-        <v>600</v>
-      </c>
-      <c r="E43" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D44" t="s">
-        <v>601</v>
-      </c>
-      <c r="E44" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D45" t="s">
-        <v>602</v>
-      </c>
-      <c r="E45" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D46" t="s">
-        <v>603</v>
-      </c>
-      <c r="E46" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D47" t="s">
-        <v>604</v>
-      </c>
-      <c r="E47" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D48" t="s">
-        <v>605</v>
-      </c>
-      <c r="E48" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D49" t="s">
-        <v>607</v>
-      </c>
-      <c r="E49" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D50" t="s">
-        <v>608</v>
-      </c>
-      <c r="E50" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D51" t="s">
-        <v>609</v>
-      </c>
-      <c r="E51" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D52" t="s">
-        <v>610</v>
-      </c>
-      <c r="E52" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D53" t="s">
-        <v>611</v>
-      </c>
-      <c r="E53" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D54" t="s">
-        <v>612</v>
-      </c>
-      <c r="E54" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D55" t="s">
-        <v>613</v>
-      </c>
-      <c r="E55" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D56" t="s">
-        <v>614</v>
-      </c>
-      <c r="E56" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D57" t="s">
-        <v>615</v>
-      </c>
-      <c r="E57" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D58" t="s">
-        <v>616</v>
-      </c>
-      <c r="E58" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D59" t="s">
-        <v>617</v>
-      </c>
-      <c r="E59" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D60" t="s">
-        <v>618</v>
-      </c>
-      <c r="E60" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D61" t="s">
-        <v>619</v>
-      </c>
-      <c r="E61" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E62" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E63" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E64" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E65" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E66" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E67" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E68" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E69" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E70" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E71" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E72" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E73" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E74" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E75" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E76" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E77" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E78" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E79" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E80" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E81" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E82" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E83" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E84" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E85" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E86" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E87" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E88" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E89" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E90" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E91" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E92" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E93" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E94" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E95" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E96" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E97" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E98" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E99" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E100" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E101" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E102" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E103" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E104" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E105" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E106" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E107" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E108" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E109" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E110" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E111" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E112" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E113" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E114" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E115" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E116" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E117" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E118" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E119" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E120" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E121" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E122" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E123" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E124" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E125" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E126" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E127" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E128" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E129" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E130" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E131" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E132" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E133" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E134" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E135" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E136" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E137" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E138" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E139" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E140" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E141" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="142" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E142" t="s">
-        <v>619</v>
       </c>
     </row>
   </sheetData>
